--- a/Andrew-annotations/BGS_Q2_2014.xlsx
+++ b/Andrew-annotations/BGS_Q2_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4A4F59-3C45-47BD-9AEC-83C6B4FAFBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FE730-04F3-4E29-887F-D356ABB1D3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
